--- a/excel_params/1.6_params.xlsx
+++ b/excel_params/1.6_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionIII_double_peak\store_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D1699-E024-4D2E-8444-26B3D62F6471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D4BA9A-9979-44E7-AFB5-045103D985A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,6 +659,230 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>9.666209493052845</v>
+      </c>
+      <c r="B5" s="1">
+        <v>423.07643816529065</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>250</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>112</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.1860127376681029</v>
+      </c>
+      <c r="J5" s="1">
+        <v>89.92833306290639</v>
+      </c>
+      <c r="K5" s="1">
+        <v>66.236701177814368</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.276808429449211</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.47161840247253933</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.8792800518084283</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.1332947117541396</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.5574794150717266</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>9.8644557174274166</v>
+      </c>
+      <c r="R5" s="1">
+        <v>952.67671225792219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>10.270342689105512</v>
+      </c>
+      <c r="B6" s="1">
+        <v>395.82002629264406</v>
+      </c>
+      <c r="C6" s="1">
+        <v>48.598423828778877</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.2077123540034869</v>
+      </c>
+      <c r="E6" s="1">
+        <v>239.34026280508829</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12.236143895817698</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5126779670675381</v>
+      </c>
+      <c r="H6" s="1">
+        <v>105.44508999552255</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.0414489788221624</v>
+      </c>
+      <c r="J6" s="1">
+        <v>91.98824895933457</v>
+      </c>
+      <c r="K6" s="1">
+        <v>66.22565292326513</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15.983110499820588</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.4956483643467226</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.1765081661558892</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.74564121333652267</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.0335160639924883</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10.855512085170568</v>
+      </c>
+      <c r="R6" s="1">
+        <v>981.13674398186993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10.042544173640056</v>
+      </c>
+      <c r="B7" s="1">
+        <v>388.95545835356194</v>
+      </c>
+      <c r="C7" s="1">
+        <v>48.651582550669517</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.2536289054550487</v>
+      </c>
+      <c r="E7" s="1">
+        <v>242.68518280877811</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12.891582377465417</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.5624104471838454</v>
+      </c>
+      <c r="H7" s="1">
+        <v>105.34826194278151</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.1236304532682024</v>
+      </c>
+      <c r="J7" s="1">
+        <v>89.342901013127147</v>
+      </c>
+      <c r="K7" s="1">
+        <v>66.248439035084473</v>
+      </c>
+      <c r="L7" s="1">
+        <v>16.423274690922163</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.48854467390942663</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.4156114701306954</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.91927363769669546</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3.8097493952601149</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>10.476574119240752</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1006.2296848682686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10.097124981499526</v>
+      </c>
+      <c r="B8" s="1">
+        <v>394.4909512747048</v>
+      </c>
+      <c r="C8" s="1">
+        <v>48.602127811664133</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.2150001869936933</v>
+      </c>
+      <c r="E8" s="1">
+        <v>241.50686695242592</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12.610620349607821</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.5460731286163423</v>
+      </c>
+      <c r="H8" s="1">
+        <v>105.20055130971937</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.1139676709516206</v>
+      </c>
+      <c r="J8" s="1">
+        <v>89.133280804640265</v>
+      </c>
+      <c r="K8" s="1">
+        <v>66.251064681572601</v>
+      </c>
+      <c r="L8" s="1">
+        <v>16.285416669838533</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.49128872953291203</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.3452052121570173</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.84608111791383167</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3.8922169395124122</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10.633484776635283</v>
+      </c>
+      <c r="R8" s="1">
+        <v>987.01063242974283</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
